--- a/facebook/fb.xlsx
+++ b/facebook/fb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Number</t>
   </si>
@@ -54,6 +54,36 @@
   </si>
   <si>
     <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Pow(x,n)</t>
+  </si>
+  <si>
+    <t>Merge Interval</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Remove Duplicated from Sorted Array</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>Remove Duplicated from Sorted Array II</t>
   </si>
 </sst>
 </file>
@@ -89,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -104,6 +134,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -111,6 +144,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,29 +459,31 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -453,90 +491,190 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6">
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>43</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="D7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
+      <c r="A8" s="1">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="3"/>
+      <c r="A9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
+      <c r="A10" s="1">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="3"/>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="3"/>
+      <c r="A11" s="1">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
+      <c r="A12" s="1">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
+      <c r="A13" s="1">
+        <v>78</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
+      <c r="A14" s="1">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
@@ -850,102 +988,107 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="C93:D93"/>
+  <mergeCells count="95">
     <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C93:D93"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C87:D87"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C81:D81"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C75:D75"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C69:D69"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C63:D63"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/facebook/fb.xlsx
+++ b/facebook/fb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Number</t>
   </si>
@@ -84,13 +84,66 @@
   </si>
   <si>
     <t>Remove Duplicated from Sorted Array II</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>3.5/4</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Word Breaker</t>
+  </si>
+  <si>
+    <t>One Edit Distance</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Trie (Prefix Tree)
+</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,8 +169,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -149,8 +205,9 @@
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -428,8 +485,8 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,71 +729,224 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
+      <c r="A16" s="1">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="3"/>
+      <c r="E16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>116</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>117</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>127</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="3"/>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>133</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="3"/>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>139</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>161</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>173</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>200</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>208</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>209</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>

--- a/facebook/fb.xlsx
+++ b/facebook/fb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>Number</t>
   </si>
@@ -130,6 +130,112 @@
   </si>
   <si>
     <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Add and Search Word - Data structure design</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Find the Celebrity</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>H-Index II</t>
+  </si>
+  <si>
+    <t>Inorder Sucseesor in BST</t>
+  </si>
+  <si>
+    <t>Wall Gates</t>
+  </si>
+  <si>
+    <t>move zero</t>
+  </si>
+  <si>
+    <t>Sparse Matrix Multiplication</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Random Pick Index</t>
+  </si>
+  <si>
+    <t>3 新奇题</t>
+  </si>
+  <si>
+    <t>Hamming Distance</t>
+  </si>
+  <si>
+    <t>Total Hamming Distance</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous Subarray Sum
+</t>
+  </si>
+  <si>
+    <t>Contiguous Array</t>
+  </si>
+  <si>
+    <t>Wall Bricks</t>
+  </si>
+  <si>
+    <t>Task Schedule</t>
+  </si>
+  <si>
+    <t>Exclusive Time of Functions</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>Number of Longest Increasing Subsequence</t>
   </si>
 </sst>
 </file>
@@ -482,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,263 +924,577 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>127</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
+        <v>161</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>173</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="D27" s="2"/>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>200</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>208</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="3"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>209</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>210</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>211</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>215</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>235</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>236</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>238</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>252</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>253</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>261</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>274</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>275</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>277</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>283</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>285</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="I44" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>286</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="I45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>311</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="I46" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>314</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="I47" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>334</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>341</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="I49" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>367</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="3"/>
+      <c r="E50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>377</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="3"/>
+      <c r="I51" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>380</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="3"/>
+      <c r="I52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>398</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="3"/>
+      <c r="I53" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>461</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="3"/>
+      <c r="I54" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>477</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="3"/>
+      <c r="I55" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>494</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="3"/>
+      <c r="I56" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>523</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="3"/>
+      <c r="I57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>525</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="3"/>
+      <c r="I58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>554</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="3"/>
+      <c r="I59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>621</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="3"/>
+      <c r="I60" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>636</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="3"/>
+      <c r="I61" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>647</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="3"/>
+      <c r="I62" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>673</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="I63" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
@@ -1202,12 +1622,116 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="113">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
@@ -1250,36 +1774,22 @@
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
